--- a/General/Assetlist And Planning.xlsx
+++ b/General/Assetlist And Planning.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
-  <si>
-    <t>WEEK</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="177">
   <si>
     <t>WEEK 1</t>
   </si>
@@ -135,13 +132,436 @@
   </si>
   <si>
     <t>Pistol Texturing</t>
+  </si>
+  <si>
+    <t>Asset List</t>
+  </si>
+  <si>
+    <t>CD_Enemy_Movement</t>
+  </si>
+  <si>
+    <t>CD_Player_Movement</t>
+  </si>
+  <si>
+    <t>CD_Player_Stats</t>
+  </si>
+  <si>
+    <t>CD_Camera</t>
+  </si>
+  <si>
+    <t>CD_Shooting</t>
+  </si>
+  <si>
+    <t>CD_Manager</t>
+  </si>
+  <si>
+    <t>CD_WaveSystem</t>
+  </si>
+  <si>
+    <t>CD_Wave</t>
+  </si>
+  <si>
+    <t>CD_Spawning</t>
+  </si>
+  <si>
+    <t>CD_Perks</t>
+  </si>
+  <si>
+    <t>CD_Event_Manager</t>
+  </si>
+  <si>
+    <t>CD_Enemy_Stats</t>
+  </si>
+  <si>
+    <t>3D_Enemy</t>
+  </si>
+  <si>
+    <t>RG_Enemy</t>
+  </si>
+  <si>
+    <t>AM_Enemy</t>
+  </si>
+  <si>
+    <t>UV_Enemy</t>
+  </si>
+  <si>
+    <t>TX_Enemy</t>
+  </si>
+  <si>
+    <t>3D_Pistol</t>
+  </si>
+  <si>
+    <t>AM_Pistol</t>
+  </si>
+  <si>
+    <t>UV_Pistol</t>
+  </si>
+  <si>
+    <t>TX_Pistol</t>
+  </si>
+  <si>
+    <t>3D_Broken_Wall</t>
+  </si>
+  <si>
+    <t>UV_Broken_Wall</t>
+  </si>
+  <si>
+    <t>TX_Broken_Wall</t>
+  </si>
+  <si>
+    <t>3D_Broken_House</t>
+  </si>
+  <si>
+    <t>UV_Broken_House</t>
+  </si>
+  <si>
+    <t>TX_Broken_House</t>
+  </si>
+  <si>
+    <t>3D_Barrier</t>
+  </si>
+  <si>
+    <t>UV_Barrier</t>
+  </si>
+  <si>
+    <t>TX_Barrier</t>
+  </si>
+  <si>
+    <t>3D_Barrel</t>
+  </si>
+  <si>
+    <t>UV_Barrel</t>
+  </si>
+  <si>
+    <t>TX_Barrel</t>
+  </si>
+  <si>
+    <t>TX_Grass</t>
+  </si>
+  <si>
+    <t>UI_Healthbar</t>
+  </si>
+  <si>
+    <t>UI_Ammo</t>
+  </si>
+  <si>
+    <t>UI_Score</t>
+  </si>
+  <si>
+    <t>UI_Wave</t>
+  </si>
+  <si>
+    <t>UI_PauseMenu</t>
+  </si>
+  <si>
+    <t>UI_StartMenu</t>
+  </si>
+  <si>
+    <t>3D_Trashcan</t>
+  </si>
+  <si>
+    <t>UV_Trashcan</t>
+  </si>
+  <si>
+    <t>TX_Trashcan</t>
+  </si>
+  <si>
+    <t>3D_Barrier2</t>
+  </si>
+  <si>
+    <t>UV_Barrier2</t>
+  </si>
+  <si>
+    <t>TX_Barrier3</t>
+  </si>
+  <si>
+    <t>TX_Barrier2</t>
+  </si>
+  <si>
+    <t>3D_Barrier3</t>
+  </si>
+  <si>
+    <t>UV_Barrier3</t>
+  </si>
+  <si>
+    <t>3D_Wall</t>
+  </si>
+  <si>
+    <t>UV_Wall</t>
+  </si>
+  <si>
+    <t>TX_Wall</t>
+  </si>
+  <si>
+    <t>3D_Crate</t>
+  </si>
+  <si>
+    <t>UV_Crate</t>
+  </si>
+  <si>
+    <t>TX_Crate</t>
+  </si>
+  <si>
+    <t>3D_Lantern</t>
+  </si>
+  <si>
+    <t>UV_Lantern</t>
+  </si>
+  <si>
+    <t>TX_Lantern</t>
+  </si>
+  <si>
+    <t>3D_TrafficBoard</t>
+  </si>
+  <si>
+    <t>TX_TrafficBoard</t>
+  </si>
+  <si>
+    <t>UV_TrafficBoard</t>
+  </si>
+  <si>
+    <t>3D_TrafficCone</t>
+  </si>
+  <si>
+    <t>UV_TrafficCone</t>
+  </si>
+  <si>
+    <t>TX_TrafficCone</t>
+  </si>
+  <si>
+    <t>3D_BrokenCar</t>
+  </si>
+  <si>
+    <t>UV_BrokenCar</t>
+  </si>
+  <si>
+    <t>TX_BrokenCar</t>
+  </si>
+  <si>
+    <t>TX_Poster</t>
+  </si>
+  <si>
+    <t>3D_TrafficLight</t>
+  </si>
+  <si>
+    <t>TX_TrafficLight</t>
+  </si>
+  <si>
+    <t>UV_TrafficLight</t>
+  </si>
+  <si>
+    <t>3D_Bench</t>
+  </si>
+  <si>
+    <t>UV_Bench</t>
+  </si>
+  <si>
+    <t>TX_Bench</t>
+  </si>
+  <si>
+    <t>3D_SewerLid</t>
+  </si>
+  <si>
+    <t>UV_SewerLid</t>
+  </si>
+  <si>
+    <t>TX_SewerLid</t>
+  </si>
+  <si>
+    <t>3D_Pallet</t>
+  </si>
+  <si>
+    <t>UV_Pallet</t>
+  </si>
+  <si>
+    <t>TX_Pallet</t>
+  </si>
+  <si>
+    <t>3D_Debris</t>
+  </si>
+  <si>
+    <t>UV_Debris</t>
+  </si>
+  <si>
+    <t>TX_Debris</t>
+  </si>
+  <si>
+    <t>3D_PerkMachine1</t>
+  </si>
+  <si>
+    <t>UV_PerkMachine1</t>
+  </si>
+  <si>
+    <t>TX_PerkMachine1</t>
+  </si>
+  <si>
+    <t>3D_PerkMachine2</t>
+  </si>
+  <si>
+    <t>UV_PerkMachine2</t>
+  </si>
+  <si>
+    <t>TX_PerkMAchine2</t>
+  </si>
+  <si>
+    <t>3D_PerkMachine3</t>
+  </si>
+  <si>
+    <t>UV_ParkMachine3</t>
+  </si>
+  <si>
+    <t>TX_PerkMachine3</t>
+  </si>
+  <si>
+    <t>3D_Sandbags</t>
+  </si>
+  <si>
+    <t>UV_Sandbags</t>
+  </si>
+  <si>
+    <t>TX_Sandbags</t>
+  </si>
+  <si>
+    <t>3D_Rocks</t>
+  </si>
+  <si>
+    <t>UV_Rocks</t>
+  </si>
+  <si>
+    <t>TX_Rocks</t>
+  </si>
+  <si>
+    <t>3D_Table</t>
+  </si>
+  <si>
+    <t>UV_Table</t>
+  </si>
+  <si>
+    <t>TX_Table</t>
+  </si>
+  <si>
+    <t>3D_Chair</t>
+  </si>
+  <si>
+    <t>UV_Chair</t>
+  </si>
+  <si>
+    <t>TX_Chair</t>
+  </si>
+  <si>
+    <t>3D_Bricks</t>
+  </si>
+  <si>
+    <t>UV_Bricks</t>
+  </si>
+  <si>
+    <t>TX_Bricks</t>
+  </si>
+  <si>
+    <t>3D_Sofa</t>
+  </si>
+  <si>
+    <t>UV_Sofa</t>
+  </si>
+  <si>
+    <t>TX_Sofa</t>
+  </si>
+  <si>
+    <t>3D_KitchenSink</t>
+  </si>
+  <si>
+    <t>UV_KitchenSink</t>
+  </si>
+  <si>
+    <t>TX_KitchenSink</t>
+  </si>
+  <si>
+    <t>3D_BrokenTable</t>
+  </si>
+  <si>
+    <t>UV_BrokenTable</t>
+  </si>
+  <si>
+    <t>TX_BrokenTable</t>
+  </si>
+  <si>
+    <t>3D_BrokenChair</t>
+  </si>
+  <si>
+    <t>UV_BrokenChair</t>
+  </si>
+  <si>
+    <t>TX_BrokenChair</t>
+  </si>
+  <si>
+    <t>PS_GunFire</t>
+  </si>
+  <si>
+    <t>PS_Fire</t>
+  </si>
+  <si>
+    <t>PS_Dust</t>
+  </si>
+  <si>
+    <t>PS_Leafs</t>
+  </si>
+  <si>
+    <t>PS_Cloud</t>
+  </si>
+  <si>
+    <t>PS_EnemyHit</t>
+  </si>
+  <si>
+    <t>PS_EnvHit</t>
+  </si>
+  <si>
+    <t>PS_Points</t>
+  </si>
+  <si>
+    <t>PS_Pickup</t>
+  </si>
+  <si>
+    <t>3D_Pickup1</t>
+  </si>
+  <si>
+    <t>UV_Pickup1</t>
+  </si>
+  <si>
+    <t>TX_Pickup1</t>
+  </si>
+  <si>
+    <t>3D_Pickup2</t>
+  </si>
+  <si>
+    <t>UV_Pickup2</t>
+  </si>
+  <si>
+    <t>TX_Pickup2</t>
+  </si>
+  <si>
+    <t>TX_Pickup3</t>
+  </si>
+  <si>
+    <t>3D_Pickup3</t>
+  </si>
+  <si>
+    <t>UV_Pickup3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +578,17 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -251,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -289,9 +720,11 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -605,81 +1038,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" customWidth="1"/>
-    <col min="13" max="13" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
+      <c r="N1" s="2"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -688,557 +1123,646 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="8" t="s">
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="9" t="s">
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="10" t="s">
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:15" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="2"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="2"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="2"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="2"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="2"/>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1248,14 +1772,19 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="2"/>
       <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1265,9 +1794,898 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="2"/>
       <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
